--- a/target/test-classes/TestData/Inputdata.xlsx
+++ b/target/test-classes/TestData/Inputdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raja\eclipse-workspace\RBPOMtest\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D032E9-A75C-438E-8A9D-0D7F5906DF28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D787CDB4-063E-4AAB-BF59-775D689A2817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Bustypes</t>
   </si>
@@ -33,16 +33,10 @@
     <t>Boardingpoint</t>
   </si>
   <si>
-    <t>Operator</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
     <t>Avadi</t>
-  </si>
-  <si>
-    <t>City Travels</t>
   </si>
 </sst>
 </file>
@@ -360,53 +354,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
